--- a/PythontoExcel.xlsx
+++ b/PythontoExcel.xlsx
@@ -510,6 +510,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
